--- a/biology/Médecine/Toussaint_Bordenave/Toussaint_Bordenave.xlsx
+++ b/biology/Médecine/Toussaint_Bordenave/Toussaint_Bordenave.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Toussaint Bordenave est un chirurgien et anatomiste français, né à Paris le 10 avril 1728, et mort dans la même ville le 12 mars 1782 (à 53 ans).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toussaint Bordenave est le fils de Pierre Bordenave (†1746), chirurgien, et de Edmée Marguerite Hauterive.
 Bien que son père le destinât au métier de chirurgien, il lui a fait suivre des études ordinaires au collège des Jésuites et de philosophie au collège d'Harcourt pour qu'il puisse comprendre les langues utilisées par les anatomistes les plus célèbres des siècles précédents. Il a pris le grade de Maître ès Arts. Cette connaissance du latin lui a donné un avantage sur ses confrères.
@@ -520,7 +534,7 @@
 Il a donné des mémoires à l'Académie de chirurgie avec des observations sur des faits extraordinaires rencontrés au cours de ses interventions, sur le traitement des blessures par armes à feu, et sur des questions chirurgicales.
 Il s'est occupé de recherches anatomiques et va faire des expériences pour éclaircir quelques points de la doctrine d'Albrecht von Haller sur la différence des parties sensibles et irritables et a écrit un ouvrage pour défendre l'opinion de cet anatomiste sur la formation des os contre celle de Henri Louis Duhamel du Monceau. Il a traduit pour ses élèves les éléments de physiologie de Haller, puis rédigé un traité sur cette science.
 Il a d'abord été nommé adjoint anatomiste surnuméraire directement par Louis XV le 13 mars 1774 - Associé vétéran le 30 mars 1774 sans avoir été proposé par l'Académie. L'Académie a fait des représentations à ce sujet qui ont été reçues. Le Roi l'a alors nommé associé vétéran.
-Toussaint Bordenave a été le premier chirurgien à être élu échevin de Paris, en 1780[1]. Il est aussi fait chevalier de l'ordre de Saint-Michel à l'occasion de la naissance du Dauphin.
+Toussaint Bordenave a été le premier chirurgien à être élu échevin de Paris, en 1780. Il est aussi fait chevalier de l'ordre de Saint-Michel à l'occasion de la naissance du Dauphin.
 Il a succombé à la suite d'une attaque d'apoplexie, le 12 mars 1782.
 </t>
         </is>
@@ -550,7 +564,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Positiones anatomicae et chirurgicae, thès présentée à l'école de chirurgie le 2 juillet 1750 (lire en ligne)
 Abrégé de pathologie et de thérapeutique pour l'instruction des étudians en chirurgie, 1753 (lire en ligne)
